--- a/mbs-perturbation/bottleneck/elm/nearmiss/bottleneck_elm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/nearmiss/bottleneck_elm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6285714285714286</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6169590643274854</v>
+        <v>0.3892733564013841</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5691176470588235</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4125</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5957014157014158</v>
+        <v>0.4023965141612201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5324183006535947</v>
+        <v>0.7111764705882353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4347903947903948</v>
+        <v>0.5064206884622038</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5250094599243206</v>
+        <v>0.4849975284231339</v>
       </c>
     </row>
   </sheetData>
